--- a/Python操作Excel/Ch03_讀取與寫入儲存格內容/out3_5.xlsx
+++ b/Python操作Excel/Ch03_讀取與寫入儲存格內容/out3_5.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2022/11/16</t>
+          <t>2022/11m/16d</t>
         </is>
       </c>
     </row>
